--- a/tables/faces2_cond1.xlsx
+++ b/tables/faces2_cond1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Вуз\Диплом\Program\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E092F270-0DCD-4194-B171-D3C5772A84F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADCFE39-9625-4AE3-9412-3A6D94C90AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -198,7 +198,7 @@
     <t>emo_right</t>
   </si>
   <si>
-    <t>pics/Happiness/Happy_9.png</t>
+    <t>pics/Happiness/happy_9.png</t>
   </si>
 </sst>
 </file>
@@ -533,7 +533,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
